--- a/Assets/Res/Arts/ExcelConfig/HitConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/HitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14850"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="HitConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>id</t>
   </si>
@@ -27,7 +27,8 @@
     <t>打击类型
 1：普通技能
 2：牛逼技能
-3：位移技能</t>
+3：位移技能
+4：子弹技能（映射到子弹表）</t>
   </si>
   <si>
     <t>位移方向
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>位移衰减</t>
+  </si>
+  <si>
+    <t>映射表id</t>
   </si>
   <si>
     <t>lua,sql</t>
@@ -79,7 +83,13 @@
     <t>moveAtt</t>
   </si>
   <si>
+    <t>mapId</t>
+  </si>
+  <si>
     <t>普通伤害陷阱</t>
+  </si>
+  <si>
+    <t>子弹技能测试</t>
   </si>
 </sst>
 </file>
@@ -87,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,8 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -137,46 +140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,21 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -244,6 +194,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -254,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,21 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,50 +469,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +496,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,145 +563,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,24 +1034,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:7">
+    <row r="1" ht="81" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,67 +1073,76 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>100001000</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1140,13 +1159,16 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>100001001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1163,13 +1185,16 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>100001002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1186,13 +1211,16 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>100001003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1209,13 +1237,16 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>100001004</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1232,13 +1263,16 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>100001005</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1255,13 +1289,16 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>100001006</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1278,13 +1315,16 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>100001007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1301,13 +1341,16 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>100001008</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1324,13 +1367,16 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>100001009</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1347,13 +1393,16 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>100001010</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1370,13 +1419,16 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>100001011</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1393,13 +1445,16 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>100001012</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1416,13 +1471,16 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>100001013</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1439,13 +1497,16 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>200001000</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1462,13 +1523,16 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>200001001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1485,13 +1549,16 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>200001002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1508,13 +1575,16 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>200001003</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1531,13 +1601,16 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>200001004</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1554,13 +1627,16 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>200001005</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1577,13 +1653,16 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>200001006</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1600,13 +1679,16 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>200001007</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -1623,13 +1705,16 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>200001008</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1646,13 +1731,16 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>200001009</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1669,13 +1757,16 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>200001010</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1692,13 +1783,16 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>200001011</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -1715,13 +1809,16 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>200001012</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1738,13 +1835,16 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>200001013</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -1761,13 +1861,16 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>200001014</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -1784,13 +1887,16 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>300001001</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -1807,13 +1913,16 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>300001002</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -1830,13 +1939,16 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>300001003</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -1853,13 +1965,16 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>300001004</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
@@ -1876,13 +1991,16 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>300001005</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -1899,13 +2017,16 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>300001006</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -1922,13 +2043,16 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>300001007</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -1945,13 +2069,16 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>300001008</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -1968,13 +2095,16 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>300001009</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -1991,13 +2121,16 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>300001010</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -2014,13 +2147,16 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>300001011</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -2037,13 +2173,16 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>300001012</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -2060,13 +2199,16 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>300001013</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -2083,13 +2225,16 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>300001014</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
@@ -2106,13 +2251,16 @@
       <c r="G47" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>300001015</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -2128,6 +2276,35 @@
       </c>
       <c r="G48" s="1">
         <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>400001001</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>100001</v>
       </c>
     </row>
   </sheetData>
